--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos.VALENTE-DA-SI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos.VALENTE-DA-SI\Documents\GitHub\ProjetWebDMS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>J'ai continué à aidé simão à faire le cahier des charges.</t>
+  </si>
+  <si>
+    <t>Finalisation des maquettes</t>
+  </si>
+  <si>
+    <t>J'ai fini les dernières maquettes à faire</t>
   </si>
 </sst>
 </file>
@@ -719,40 +725,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,7 +758,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1386,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,27 +1415,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1437,14 +1443,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1471,14 +1477,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1506,14 +1512,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="44">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1541,15 +1547,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.22569444444444442</v>
+        <v>0.25694444444444442</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1605,10 +1611,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1639,10 +1645,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1673,10 +1679,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -1811,18 +1817,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+    <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <v>44964</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J16" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="K16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G17" s="4"/>
@@ -44305,18 +44325,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44677,9 +44697,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44853,26 +44876,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44896,9 +44908,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -171,10 +171,28 @@
     <t>J'ai continué à aidé simão à faire le cahier des charges.</t>
   </si>
   <si>
-    <t>Finalisation des maquettes</t>
+    <t>Création du zonning</t>
   </si>
   <si>
-    <t>J'ai fini les dernières maquettes à faire</t>
+    <t>J'ai créer le zonning par rapport aux maquettes imagniné au part avant</t>
+  </si>
+  <si>
+    <t>Mise a jour du IceScrum</t>
+  </si>
+  <si>
+    <t>Ajout de backlog dans le sprint 2, ajout de tache dans le Creation cdc. Mise a jour des choses faites</t>
+  </si>
+  <si>
+    <t>IceScrum</t>
+  </si>
+  <si>
+    <t>Je cherche des idées a mettre dans la sandbox de IceScrun</t>
+  </si>
+  <si>
+    <t>Cahier des charges</t>
+  </si>
+  <si>
+    <t>Dernière mise a jour du cahier des charges.</t>
   </si>
 </sst>
 </file>
@@ -1392,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1571,7 @@
       <c r="C7" s="48"/>
       <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.25694444444444442</v>
+        <v>0.28958333333333319</v>
       </c>
       <c r="E7" s="50"/>
       <c r="G7" s="4">
@@ -1819,17 +1837,17 @@
     </row>
     <row r="16" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="G16" s="4">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="H16" s="5">
-        <v>0.67361111111111116</v>
+        <v>0.5625</v>
       </c>
       <c r="I16" s="6">
-        <v>0.70486111111111116</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J16" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>3.125E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
@@ -1844,44 +1862,86 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+    <row r="17" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.58402777777777781</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="J17" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.3194444444444398E-2</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.61388888888888882</v>
+      </c>
       <c r="J18" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.5972222222222165E-2</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J19" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G20" s="4"/>

--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>Dernière mise a jour du cahier des charges.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation des questions </t>
+  </si>
+  <si>
+    <t>On a cherché plusieurs question a poser au client durant le rendez-vous</t>
+  </si>
+  <si>
+    <t>Imprimer</t>
+  </si>
+  <si>
+    <t>J'ai imprimer les documents pour préparer notre rendez-vous</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Envoie du mail aux clients pour le rendez-vous</t>
   </si>
 </sst>
 </file>
@@ -743,13 +761,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,36 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,7 +1429,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,27 +1451,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1461,14 +1479,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1495,14 +1513,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1530,14 +1548,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1565,15 +1583,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.28958333333333319</v>
+        <v>0.31319444444444422</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1629,10 +1647,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1663,10 +1681,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1697,10 +1715,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -1943,44 +1961,86 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+    <row r="20" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="J20" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.65625</v>
+      </c>
       <c r="J21" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>2.7777777777777679E-3</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="G22" s="4">
+        <v>44966</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="J22" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G23" s="4"/>
@@ -44385,18 +44445,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44757,12 +44817,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44936,15 +44993,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44968,17 +45036,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>J'ai fini les dernières maquettes à faire</t>
+  </si>
+  <si>
+    <t>Chercher un template</t>
+  </si>
+  <si>
+    <t>On a cherché des templates sur internet</t>
   </si>
 </sst>
 </file>
@@ -725,13 +731,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,36 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,7 +1399,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,27 +1421,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1443,14 +1449,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1477,14 +1483,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1512,14 +1518,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1547,15 +1553,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.25694444444444442</v>
+        <v>0.28819444444444442</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1611,10 +1617,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1645,10 +1651,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1679,10 +1685,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -1844,18 +1850,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+    <row r="17" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>44978</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J17" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G18" s="4"/>
@@ -44325,18 +44345,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44697,12 +44717,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44876,15 +44893,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44908,17 +44936,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>On a cherché des templates sur internet</t>
+  </si>
+  <si>
+    <t>Chercher un template coréspedant a nos critères</t>
+  </si>
+  <si>
+    <t>Trouvé un template fait uniquement avec du HTML/CSS sur internet et en plus de cela gratuit.</t>
+  </si>
+  <si>
+    <t>Mise a jour du IceScrum</t>
+  </si>
+  <si>
+    <t>J'ai mis a jour le IceScrum et rajouter une nouvelle activité au sprint 4</t>
   </si>
 </sst>
 </file>
@@ -731,43 +743,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +775,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1399,7 +1411,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,27 +1433,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1449,14 +1461,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="40"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1483,14 +1495,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="38"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1518,14 +1530,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="32"/>
+      <c r="D6" s="35">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="36"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1553,15 +1565,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.28819444444444442</v>
+        <v>-0.18472222222222245</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="50"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1617,10 +1629,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="42"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1651,10 +1663,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="44"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1685,10 +1697,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="46"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -1877,41 +1889,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+    <row r="18" spans="7:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <v>44979</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J18" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <v>44980</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.57986111111111105</v>
+      </c>
       <c r="J19" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>3.4722222222220989E-3</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="K19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="4">
+        <v>44980</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.5805555555555556</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
+        <v>-0.5805555555555556</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L20" s="8"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -44345,18 +44391,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44717,9 +44763,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44893,26 +44942,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44936,9 +44974,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>J'ai mis a jour le IceScrum et rajouter une nouvelle activité au sprint 4</t>
+  </si>
+  <si>
+    <t>Attente du client</t>
+  </si>
+  <si>
+    <t>On a attendu Monsieur Meylan</t>
   </si>
 </sst>
 </file>
@@ -743,13 +749,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,36 +811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1411,7 +1417,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,27 +1439,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1461,14 +1467,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="50"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1495,14 +1501,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="48"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1530,14 +1536,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35">
+      <c r="C6" s="39"/>
+      <c r="D6" s="45">
         <v>44957</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="46"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1565,15 +1571,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="C7" s="37"/>
+      <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>-0.18472222222222245</v>
+        <v>0.44374999999999976</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="41"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1629,10 +1635,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="31"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1663,10 +1669,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="33"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1697,10 +1703,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="35"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -1950,17 +1956,25 @@
       <c r="H20" s="5">
         <v>0.5805555555555556</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J20" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>-0.5805555555555556</v>
+        <v>4.7916666666666607E-2</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="L20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
@@ -44391,18 +44405,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44763,12 +44777,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44942,15 +44953,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44974,17 +44996,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Journal De Travail" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
+    <sheet name="Journal de bord" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -199,6 +199,33 @@
   </si>
   <si>
     <t>On a attendu Monsieur Meylan</t>
+  </si>
+  <si>
+    <t>IceScrum</t>
+  </si>
+  <si>
+    <t>Mise à jour du IceScrum (Ajout de tache dans les sprints.)</t>
+  </si>
+  <si>
+    <t>Mettre les dernières taches a jour dans le IceScrum ainsi que ajouter les dernières taches dans les sprints</t>
+  </si>
+  <si>
+    <t>Cahier des charges</t>
+  </si>
+  <si>
+    <t>Modification du cahier des charges par rapport aux dire du prof</t>
+  </si>
+  <si>
+    <t>Dossier de projet</t>
+  </si>
+  <si>
+    <t>Modification du dossier de projet par rapport aux dire du prof</t>
+  </si>
+  <si>
+    <t>Monsieur Meylan</t>
+  </si>
+  <si>
+    <t>Feedback du cahier des charges</t>
   </si>
 </sst>
 </file>
@@ -668,7 +695,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,6 +842,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1416,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1605,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="40">
         <f>SUM(Tableau1[Durée])</f>
-        <v>0.44374999999999976</v>
+        <v>14.514861111111111</v>
       </c>
       <c r="E7" s="41"/>
       <c r="G7" s="4">
@@ -1976,57 +2004,113 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+    <row r="21" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <v>44985</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J21" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="J22" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="I23" s="6">
+        <v>14.616250000000001</v>
+      </c>
       <c r="J23" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+        <v>14.004444444444445</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.62777777777777777</v>
+      </c>
       <c r="J24" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
@@ -44433,14 +44517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
@@ -44465,9 +44550,15 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="52">
+        <v>45009</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" s="28"/>

--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Journal De Travail" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -226,6 +226,21 @@
   </si>
   <si>
     <t>Feedback du cahier des charges</t>
+  </si>
+  <si>
+    <t>Création du fichier annexe</t>
+  </si>
+  <si>
+    <t>J'ai créer un fichier annexe ou j'ai ajouter le WireFrame ainsi que le zonning</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Marcos, Diego</t>
+  </si>
+  <si>
+    <t>On a codé le lost ainsi que les autres redirections de la page d'acceuil. Ajouter le css. On a codé le gabarit. Modifier l'index.</t>
   </si>
 </sst>
 </file>
@@ -776,43 +791,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,10 +825,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1444,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N30" sqref="N29:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,27 +1482,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1495,14 +1510,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1529,14 +1544,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="48"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1564,14 +1579,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="45">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1599,15 +1614,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="40">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>14.514861111111111</v>
-      </c>
-      <c r="E7" s="41"/>
+        <v>14.576666666666666</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1663,10 +1678,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1697,10 +1712,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1731,10 +1746,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -2112,31 +2127,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+    <row r="25" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G25" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.64097222222222217</v>
+      </c>
       <c r="J25" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+        <v>2.0833333333332149E-3</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="7:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G26" s="4">
+        <v>44986</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J26" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+        <v>5.9722222222222121E-2</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G27" s="4"/>
@@ -44489,18 +44532,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44517,7 +44560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -44529,13 +44572,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
       <c r="G1" s="25"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -44550,7 +44593,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="52">
+      <c r="C4" s="30">
         <v>45009</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -44868,9 +44911,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45044,26 +45090,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45087,9 +45122,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>On a codé le lost ainsi que les autres redirections de la page d'acceuil. Ajouter le css. On a codé le gabarit. Modifier l'index.</t>
+  </si>
+  <si>
+    <t>On essaie de débuger le register parce que ça veut pas écrire dans le register.</t>
+  </si>
+  <si>
+    <t>On à codé le login ainsi que le register.</t>
   </si>
 </sst>
 </file>
@@ -792,13 +798,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,36 +860,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,7 +1466,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N29:N30"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,27 +1488,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1510,14 +1516,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1544,14 +1550,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1579,14 +1585,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1614,15 +1620,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>14.576666666666666</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>14.673888888888888</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1678,10 +1684,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1712,10 +1718,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1746,10 +1752,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -2182,30 +2188,58 @@
       </c>
     </row>
     <row r="27" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="4">
+        <v>44987</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J27" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G28" s="4">
+        <v>44987</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="J28" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G29" s="4"/>
@@ -44532,18 +44566,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44911,12 +44945,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45090,15 +45121,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45122,17 +45164,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -1466,7 +1466,7 @@
   <dimension ref="B1:N9999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>14.673888888888888</v>
+        <v>14.840555555555554</v>
       </c>
       <c r="E7" s="42"/>
       <c r="G7" s="4">
@@ -2241,44 +2241,84 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+    <row r="29" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G29" s="4">
+        <v>44991</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="J29" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G30" s="4">
+        <v>44992</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J30" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="G31" s="4">
+        <v>44993</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J31" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G32" s="4"/>

--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>On à codé le login ainsi que le register.</t>
+  </si>
+  <si>
+    <t>Continuation du code du login /register du site</t>
+  </si>
+  <si>
+    <t>Continuation du code login</t>
+  </si>
+  <si>
+    <t>Création et commencement de la page pour les produits (chaussures)</t>
+  </si>
+  <si>
+    <t>Continuation de la page pour les produits</t>
+  </si>
+  <si>
+    <t>Finalisation de la page login (fonctionnable)</t>
   </si>
 </sst>
 </file>
@@ -798,43 +813,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -860,6 +845,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1465,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,27 +1503,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1516,14 +1531,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1550,14 +1565,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1585,14 +1600,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1620,15 +1635,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>14.840555555555554</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>15.12875</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1684,10 +1699,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1718,10 +1733,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1752,10 +1767,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -2315,75 +2330,147 @@
       <c r="L31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="N31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="4">
+        <v>45006</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J32" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="4">
+        <v>45007</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J33" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+      <c r="G34" s="4">
+        <v>45008</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J34" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
+      <c r="G35" s="4">
+        <v>45008</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J35" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="4">
+        <v>45013</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J36" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="37" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G37" s="4"/>
@@ -2395,7 +2482,7 @@
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.25">
@@ -44606,18 +44693,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -44985,9 +45072,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45161,26 +45251,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45204,9 +45283,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Finalisation de la page login (fonctionnable)</t>
+  </si>
+  <si>
+    <t>Création de la fonction logout (complète)</t>
+  </si>
+  <si>
+    <t>Création de la page panier ainsi que la fonction pour rajouter les produits dedans</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -813,13 +822,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,36 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,27 +1512,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1531,14 +1540,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="51"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1565,14 +1574,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1600,14 +1609,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36">
+      <c r="C6" s="40"/>
+      <c r="D6" s="46">
         <v>44957</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="47"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1635,15 +1644,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50">
+      <c r="C7" s="38"/>
+      <c r="D7" s="41">
         <f>SUM(Tableau1[Durée])</f>
-        <v>15.12875</v>
-      </c>
-      <c r="E7" s="51"/>
+        <v>15.2225</v>
+      </c>
+      <c r="E7" s="42"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1699,10 +1708,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="32"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1733,10 +1742,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="34"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1767,10 +1776,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="36"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -2473,30 +2482,58 @@
       </c>
     </row>
     <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
+      <c r="G37" s="4">
+        <v>45014</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J37" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="7:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G38" s="4">
+        <v>45014</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="J38" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+        <v>6.2499999999999889E-2</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G39" s="4"/>
@@ -2509,7 +2546,9 @@
       <c r="K39" s="7"/>
       <c r="L39" s="8"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G40" s="4"/>
@@ -44693,18 +44732,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:N2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G1:N2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45072,12 +45111,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45251,15 +45287,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -45283,17 +45330,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="9b42e094-9454-4e38-a519-f9a276a20d04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/JournauxMarcosDMS.xlsx
+++ b/Documentation/JournauxMarcosDMS.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
   <si>
     <t>Nom du Projet :</t>
   </si>
@@ -270,7 +270,16 @@
     <t>Création de la page panier ainsi que la fonction pour rajouter les produits dedans</t>
   </si>
   <si>
-    <t>s</t>
+    <t>On a ajouté la fonctionnalité du logout</t>
+  </si>
+  <si>
+    <t>Correction du login et du register</t>
+  </si>
+  <si>
+    <t>Correction du bug du panier</t>
+  </si>
+  <si>
+    <t>Ajout des commantaires du panier</t>
   </si>
 </sst>
 </file>
@@ -822,43 +831,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,6 +863,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1489,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,27 +1521,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="18"/>
@@ -1540,14 +1549,14 @@
       <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:14" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="41"/>
       <c r="G4" s="20" t="s">
         <v>1</v>
       </c>
@@ -1574,14 +1583,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="39"/>
       <c r="G5" s="4">
         <v>44957</v>
       </c>
@@ -1609,14 +1618,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="46">
+      <c r="C6" s="33"/>
+      <c r="D6" s="36">
         <v>44957</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="37"/>
       <c r="G6" s="4">
         <v>44957</v>
       </c>
@@ -1644,15 +1653,15 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="41">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50">
         <f>SUM(Tableau1[Durée])</f>
-        <v>15.2225</v>
-      </c>
-      <c r="E7" s="42"/>
+        <v>15.305833333333332</v>
+      </c>
+      <c r="E7" s="51"/>
       <c r="G7" s="4">
         <v>44927</v>
       </c>
@@ -1708,10 +1717,10 @@
     </row>
     <row r="9" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="43"/>
       <c r="G9" s="4">
         <v>44927</v>
       </c>
@@ -1742,10 +1751,10 @@
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="45"/>
       <c r="G10" s="4">
         <v>44927</v>
       </c>
@@ -1776,10 +1785,10 @@
       <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="47"/>
       <c r="G11" s="4">
         <v>44927</v>
       </c>
@@ -2536,58 +2545,112 @@
       </c>
     </row>
     <row r="39" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="4">
+        <v>45015</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="J39" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="1"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="N39" s="1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="4">
+        <v>45015</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="J40" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="41" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="G41" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="J41" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="G42" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.59375</v>
+      </c>
       <c r="J42" s="5">
         <f>Tableau1[[#This Row],[Heure fin]]-Tableau1[[#This Row],[Heure debut]]</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" spans="7:14" x14ac:dyDescent="0.25">
       <c r="G43" s="4"/>
@@ -44732,18 +44795,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="G1:N2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
@@ -45117,6 +45180,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F10DAC44C95A154384EF77107A281D11" ma:contentTypeVersion="8" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3979715eec82edf26df12bf3e6af81be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b42e094-9454-4e38-a519-f9a276a20d04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed7a16628601bb454d8798403a0661ba" ns2:_="">
     <xsd:import namespace="9b42e094-9454-4e38-a519-f9a276a20d04"/>
@@ -45286,15 +45358,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D38AEF9-57C3-439A-B892-EB0F14AB4CC0}">
   <ds:schemaRefs>
@@ -45312,6 +45375,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66807C5D-DD65-4C5E-BC6E-161A585D5301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45327,12 +45398,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE66B988-21FD-4E82-857E-C2E9A6618F3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>